--- a/Applicationdata/appdata.xlsx
+++ b/Applicationdata/appdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>admin1@gmail.com</t>
   </si>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,20 +395,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -416,10 +408,6 @@
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
